--- a/02.Bluepoint import models/Plant+budget+import_May+2022.xlsx
+++ b/02.Bluepoint import models/Plant+budget+import_May+2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/04 - Migration données/02.Bluepoint import models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{43A88A4D-ED95-694F-B893-79DD0EF245B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A69EBE-8530-400F-91B4-06C8650EF1F3}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{43A88A4D-ED95-694F-B893-79DD0EF245B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75911D1B-B536-4390-B168-50C3A198801E}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1905" windowWidth="26070" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>string</t>
   </si>
@@ -74,18 +74,9 @@
     <t>Electricity sales</t>
   </si>
   <si>
-    <t>ANPA-ECP001-METER001</t>
-  </si>
-  <si>
-    <t>01.2023</t>
-  </si>
-  <si>
     <t>02.2023</t>
   </si>
   <si>
-    <t>"01"</t>
-  </si>
-  <si>
     <t>03.2023</t>
   </si>
   <si>
@@ -116,7 +107,28 @@
     <t>12.2023</t>
   </si>
   <si>
-    <t>ANPA-2023</t>
+    <t>ANPA</t>
+  </si>
+  <si>
+    <t>ANPA-BP-1</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>O&amp;M eolienne</t>
+  </si>
+  <si>
+    <t>O&amp;M hors eolienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout agregation </t>
+  </si>
+  <si>
+    <t>Baux</t>
+  </si>
+  <si>
+    <t>Contract GTAC</t>
   </si>
 </sst>
 </file>
@@ -367,13 +379,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,11 +1560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B1EE8D-BF87-AF44-B48D-4DE26DE1722B}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.625" style="1" customWidth="1"/>
@@ -1614,14 +1626,14 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1640,48 +1652,48 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Q3" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
@@ -1692,9 +1704,7 @@
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10">
-        <v>178963.20000000001</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10">
         <v>168638.4</v>
       </c>
@@ -1734,8 +1744,12 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10">
+        <v>141000</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1747,8 +1761,12 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10">
+        <v>29000</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1760,8 +1778,12 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="10">
+        <v>15000</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1773,9 +1795,11 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10">
+        <v>57000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1788,8 +1812,12 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10">
+        <v>55000</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2183,25 +2211,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
-    <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <xsd:import namespace="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B42F7B4AC2B9FB47A2173F853ED4E5E6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2554e4bc6a999e76a3fe33ccf7d06d9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb2bd482-b9c2-4538-9042-cb52d8f965c5" xmlns:ns3="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1797702264ec573e89d227db9e0e6766" ns2:_="" ns3:_="">
+    <xsd:import namespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5"/>
+    <xsd:import namespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2209,53 +2247,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="737540b7-7beb-44e9-ac50-e0c53972ff5f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2274,11 +2269,59 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2381,38 +2424,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A513A0E2-E08A-43DE-B15F-C17B4FC43314}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5CDA1F-AEA9-406A-80C0-17279D492869}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <ds:schemaRef ds:uri="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5CDA1F-AEA9-406A-80C0-17279D492869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DAADC0-1411-4EB1-AB3C-A4FC05AA25C2}"/>
 </file>